--- a/BaseInflaProjR.xlsx
+++ b/BaseInflaProjR.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FGV\5° Periodo\Lab de R\Projeto A2 Lab de R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24C9D71-3171-4AAB-8B67-35D609CB3976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0967AC28-33C0-4839-9C07-ECE96A5E2BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPCAxINCC" sheetId="1" r:id="rId1"/>
-    <sheet name="Itens Infla Domicilio" sheetId="2" r:id="rId2"/>
+    <sheet name="Infla Subitens" sheetId="3" r:id="rId2"/>
+    <sheet name="Itens Infla Domicilio" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="198">
   <si>
     <t xml:space="preserve"> CEREAIS, LEGUMINOSAS E OLEAGINOSAS</t>
   </si>
@@ -640,8 +641,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -694,8 +703,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +733,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,44 +835,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1420,7 +1444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -3369,6 +3393,1082 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF8B33B-7FE7-4CC4-B4A6-48AD03D7A6AD}">
+  <dimension ref="C3:S22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C3" s="23"/>
+      <c r="D3" s="24">
+        <v>2006</v>
+      </c>
+      <c r="E3" s="24">
+        <v>2007</v>
+      </c>
+      <c r="F3" s="24">
+        <v>2008</v>
+      </c>
+      <c r="G3" s="24">
+        <v>2009</v>
+      </c>
+      <c r="H3" s="24">
+        <v>2010</v>
+      </c>
+      <c r="I3" s="24">
+        <v>2011</v>
+      </c>
+      <c r="J3" s="24">
+        <v>2012</v>
+      </c>
+      <c r="K3" s="24">
+        <v>2013</v>
+      </c>
+      <c r="L3" s="24">
+        <v>2014</v>
+      </c>
+      <c r="M3" s="24">
+        <v>2015</v>
+      </c>
+      <c r="N3" s="24">
+        <v>2016</v>
+      </c>
+      <c r="O3" s="24">
+        <v>2017</v>
+      </c>
+      <c r="P3" s="24">
+        <v>2018</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>2019</v>
+      </c>
+      <c r="R3" s="24">
+        <v>2020</v>
+      </c>
+      <c r="S3" s="24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C4" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4">
+        <v>0.48</v>
+      </c>
+      <c r="E4">
+        <v>4.46</v>
+      </c>
+      <c r="F4">
+        <v>5.9</v>
+      </c>
+      <c r="G4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="H4">
+        <v>5.91</v>
+      </c>
+      <c r="I4">
+        <v>6.5</v>
+      </c>
+      <c r="J4">
+        <v>5.84</v>
+      </c>
+      <c r="K4">
+        <v>5.91</v>
+      </c>
+      <c r="L4">
+        <v>6.41</v>
+      </c>
+      <c r="M4">
+        <v>10.67</v>
+      </c>
+      <c r="N4">
+        <v>6.29</v>
+      </c>
+      <c r="O4">
+        <v>2.95</v>
+      </c>
+      <c r="P4">
+        <v>3.75</v>
+      </c>
+      <c r="Q4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="R4">
+        <v>0.86</v>
+      </c>
+      <c r="S4">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C5" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5">
+        <v>0.39</v>
+      </c>
+      <c r="E5">
+        <v>10.79</v>
+      </c>
+      <c r="F5">
+        <v>11.11</v>
+      </c>
+      <c r="G5">
+        <v>3.18</v>
+      </c>
+      <c r="H5">
+        <v>10.39</v>
+      </c>
+      <c r="I5">
+        <v>7.18</v>
+      </c>
+      <c r="J5">
+        <v>9.86</v>
+      </c>
+      <c r="K5">
+        <v>8.48</v>
+      </c>
+      <c r="L5">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="M5">
+        <v>12.03</v>
+      </c>
+      <c r="N5">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="O5">
+        <v>-1.87</v>
+      </c>
+      <c r="P5">
+        <v>4.04</v>
+      </c>
+      <c r="Q5">
+        <v>6.37</v>
+      </c>
+      <c r="R5">
+        <v>1.93</v>
+      </c>
+      <c r="S5">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C6" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6">
+        <v>0.22</v>
+      </c>
+      <c r="E6">
+        <v>12.39</v>
+      </c>
+      <c r="F6">
+        <v>10.68</v>
+      </c>
+      <c r="G6">
+        <v>0.88</v>
+      </c>
+      <c r="H6">
+        <v>10.7</v>
+      </c>
+      <c r="I6">
+        <v>5.43</v>
+      </c>
+      <c r="J6">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="K6">
+        <v>7.64</v>
+      </c>
+      <c r="L6">
+        <v>7.1</v>
+      </c>
+      <c r="M6">
+        <v>12.92</v>
+      </c>
+      <c r="N6">
+        <v>9.36</v>
+      </c>
+      <c r="O6">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="P6">
+        <v>4.53</v>
+      </c>
+      <c r="Q6">
+        <v>7.84</v>
+      </c>
+      <c r="R6">
+        <v>2.57</v>
+      </c>
+      <c r="S6">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C7" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7">
+        <v>2.77</v>
+      </c>
+      <c r="E7">
+        <v>34.44</v>
+      </c>
+      <c r="F7">
+        <v>11.62</v>
+      </c>
+      <c r="G7">
+        <v>-23.25</v>
+      </c>
+      <c r="H7">
+        <v>17.93</v>
+      </c>
+      <c r="I7">
+        <v>-5.21</v>
+      </c>
+      <c r="J7">
+        <v>34.909999999999997</v>
+      </c>
+      <c r="K7">
+        <v>-6.24</v>
+      </c>
+      <c r="L7">
+        <v>3.69</v>
+      </c>
+      <c r="M7">
+        <v>13.74</v>
+      </c>
+      <c r="N7">
+        <v>31.19</v>
+      </c>
+      <c r="O7">
+        <v>-24.55</v>
+      </c>
+      <c r="P7">
+        <v>3.47</v>
+      </c>
+      <c r="Q7">
+        <v>12.92</v>
+      </c>
+      <c r="R7">
+        <v>9.92</v>
+      </c>
+      <c r="S7">
+        <v>-13.58</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C8" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8">
+        <v>0.86</v>
+      </c>
+      <c r="E8">
+        <v>9.07</v>
+      </c>
+      <c r="F8">
+        <v>12.52</v>
+      </c>
+      <c r="G8">
+        <v>-3.15</v>
+      </c>
+      <c r="H8">
+        <v>9.08</v>
+      </c>
+      <c r="I8">
+        <v>1.64</v>
+      </c>
+      <c r="J8">
+        <v>17.79</v>
+      </c>
+      <c r="K8">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="L8">
+        <v>-6.73</v>
+      </c>
+      <c r="M8">
+        <v>8.61</v>
+      </c>
+      <c r="N8">
+        <v>17.23</v>
+      </c>
+      <c r="O8">
+        <v>-4.1100000000000003</v>
+      </c>
+      <c r="P8">
+        <v>3.36</v>
+      </c>
+      <c r="Q8">
+        <v>-1.46</v>
+      </c>
+      <c r="R8">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="S8">
+        <v>10.62</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C9" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9">
+        <v>-6.4</v>
+      </c>
+      <c r="E9">
+        <v>25.8</v>
+      </c>
+      <c r="F9">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="G9">
+        <v>20.85</v>
+      </c>
+      <c r="H9">
+        <v>-23.2</v>
+      </c>
+      <c r="I9">
+        <v>15.02</v>
+      </c>
+      <c r="J9">
+        <v>25.81</v>
+      </c>
+      <c r="K9">
+        <v>13.98</v>
+      </c>
+      <c r="L9">
+        <v>4.93</v>
+      </c>
+      <c r="M9">
+        <v>40.909999999999997</v>
+      </c>
+      <c r="N9">
+        <v>-26.55</v>
+      </c>
+      <c r="O9">
+        <v>-4.43</v>
+      </c>
+      <c r="P9">
+        <v>39.68</v>
+      </c>
+      <c r="Q9">
+        <v>-15.15</v>
+      </c>
+      <c r="R9">
+        <v>8.18</v>
+      </c>
+      <c r="S9">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C10" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10">
+        <v>-0.5</v>
+      </c>
+      <c r="E10">
+        <v>-13.61</v>
+      </c>
+      <c r="F10">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="G10">
+        <v>31.43</v>
+      </c>
+      <c r="H10">
+        <v>15.89</v>
+      </c>
+      <c r="I10">
+        <v>3.74</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K10" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L10" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M10" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N10" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O10" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P10" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q10" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="R10" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S10" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C11" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11">
+        <v>1.84</v>
+      </c>
+      <c r="E11">
+        <v>17.03</v>
+      </c>
+      <c r="F11">
+        <v>3.08</v>
+      </c>
+      <c r="G11">
+        <v>17.87</v>
+      </c>
+      <c r="H11">
+        <v>-1.88</v>
+      </c>
+      <c r="I11">
+        <v>11.66</v>
+      </c>
+      <c r="J11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="R11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S11" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C12" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12">
+        <v>0.43</v>
+      </c>
+      <c r="E12">
+        <v>5.8</v>
+      </c>
+      <c r="F12">
+        <v>6.65</v>
+      </c>
+      <c r="G12">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H12">
+        <v>5.86</v>
+      </c>
+      <c r="I12">
+        <v>2.97</v>
+      </c>
+      <c r="J12" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K12" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L12" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M12" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N12" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O12" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P12" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q12" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="R12" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S12" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C13" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13">
+        <v>-0.43</v>
+      </c>
+      <c r="E13">
+        <v>22.15</v>
+      </c>
+      <c r="F13">
+        <v>24.02</v>
+      </c>
+      <c r="G13">
+        <v>-5.33</v>
+      </c>
+      <c r="H13">
+        <v>29.64</v>
+      </c>
+      <c r="I13">
+        <v>3.6</v>
+      </c>
+      <c r="J13" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K13" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L13" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M13" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N13" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O13" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P13" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q13" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="R13" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S13" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C14" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F14">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="G14">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H14">
+        <v>9.35</v>
+      </c>
+      <c r="I14">
+        <v>10.35</v>
+      </c>
+      <c r="J14" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K14" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L14" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M14" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N14" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O14" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P14" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q14" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="R14" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S14" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C15" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15">
+        <v>-0.19</v>
+      </c>
+      <c r="E15">
+        <v>7.5</v>
+      </c>
+      <c r="F15">
+        <v>15.08</v>
+      </c>
+      <c r="G15">
+        <v>-1.24</v>
+      </c>
+      <c r="H15">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="I15">
+        <v>5.62</v>
+      </c>
+      <c r="J15" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K15" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L15" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M15" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N15" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O15" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P15" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q15" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="R15" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S15" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C16" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16">
+        <v>0.64</v>
+      </c>
+      <c r="E16">
+        <v>15.63</v>
+      </c>
+      <c r="F16">
+        <v>8.23</v>
+      </c>
+      <c r="G16">
+        <v>-1.61</v>
+      </c>
+      <c r="H16">
+        <v>10.1</v>
+      </c>
+      <c r="I16">
+        <v>5.38</v>
+      </c>
+      <c r="J16" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K16" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L16" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M16" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N16" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O16" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P16" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q16" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="R16" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S16" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C17" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17">
+        <v>-0.23</v>
+      </c>
+      <c r="E17">
+        <v>19.79</v>
+      </c>
+      <c r="F17">
+        <v>0.68</v>
+      </c>
+      <c r="G17">
+        <v>-0.45</v>
+      </c>
+      <c r="H17">
+        <v>11.42</v>
+      </c>
+      <c r="I17">
+        <v>8.07</v>
+      </c>
+      <c r="J17" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K17" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L17" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M17" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N17" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O17" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P17" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q17" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="R17" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S17" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C18" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18">
+        <v>0.35</v>
+      </c>
+      <c r="E18">
+        <v>7.19</v>
+      </c>
+      <c r="F18">
+        <v>14.78</v>
+      </c>
+      <c r="G18">
+        <v>-0.69</v>
+      </c>
+      <c r="H18">
+        <v>7.12</v>
+      </c>
+      <c r="I18">
+        <v>5.07</v>
+      </c>
+      <c r="J18" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K18" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L18" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M18" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N18" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O18" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P18" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q18" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="R18" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S18" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C19" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19">
+        <v>5.37</v>
+      </c>
+      <c r="E19">
+        <v>12.6</v>
+      </c>
+      <c r="F19">
+        <v>6.24</v>
+      </c>
+      <c r="G19">
+        <v>-2.5</v>
+      </c>
+      <c r="H19">
+        <v>4.33</v>
+      </c>
+      <c r="I19">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J19" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K19" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L19" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M19" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N19" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O19" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P19" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q19" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="R19" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S19" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C20" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20">
+        <v>0.34</v>
+      </c>
+      <c r="E20">
+        <v>5.5</v>
+      </c>
+      <c r="F20">
+        <v>3.79</v>
+      </c>
+      <c r="G20">
+        <v>6.05</v>
+      </c>
+      <c r="H20">
+        <v>5.82</v>
+      </c>
+      <c r="I20">
+        <v>11.77</v>
+      </c>
+      <c r="J20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="R20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S20" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C21" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21">
+        <v>0.63</v>
+      </c>
+      <c r="E21">
+        <v>1.26</v>
+      </c>
+      <c r="F21">
+        <v>6.69</v>
+      </c>
+      <c r="G21">
+        <v>5.27</v>
+      </c>
+      <c r="H21">
+        <v>0.43</v>
+      </c>
+      <c r="I21">
+        <v>-0.35</v>
+      </c>
+      <c r="J21" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K21" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L21" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M21" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N21" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O21" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P21" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q21" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="R21" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S21" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.45">
+      <c r="C22" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22">
+        <v>-0.48</v>
+      </c>
+      <c r="E22">
+        <v>3.19</v>
+      </c>
+      <c r="F22">
+        <v>7.47</v>
+      </c>
+      <c r="G22">
+        <v>8.68</v>
+      </c>
+      <c r="H22">
+        <v>10.23</v>
+      </c>
+      <c r="I22">
+        <v>-0.5</v>
+      </c>
+      <c r="J22" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K22" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L22" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M22" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N22" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O22" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P22" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q22" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="R22" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S22" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECCCCF4-903E-4F9B-8133-DF9A057E17A5}">
   <dimension ref="B3:S23"/>
   <sheetViews>

--- a/BaseInflaProjR.xlsx
+++ b/BaseInflaProjR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FGV\5° Periodo\Lab de R\Projeto A2 Lab de R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0967AC28-33C0-4839-9C07-ECE96A5E2BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354D3436-5AB8-4C18-B724-E259F088E847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,16 +641,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -703,15 +695,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,12 +718,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,46 +814,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3397,7 +3374,7 @@
   <dimension ref="C3:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3405,1062 +3382,1075 @@
     <col min="3" max="3" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C3" s="23"/>
-      <c r="D3" s="24">
+    <row r="3" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10">
         <v>2006</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="10">
+        <f>D3+1</f>
         <v>2007</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="10">
         <v>2008</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="10">
+        <f>F3+1</f>
         <v>2009</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="10">
+        <f>G3+1</f>
         <v>2010</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="10">
+        <f>H3+1</f>
         <v>2011</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="11">
+        <f>I3+1</f>
         <v>2012</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="10">
+        <f>J3+1</f>
         <v>2013</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="10">
         <v>2014</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:S3" si="0">L3+1</f>
         <v>2015</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="10">
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="10">
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="10">
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="10">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="10">
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="12">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C4" s="23" t="s">
+    <row r="4" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C4" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="14">
         <v>0.48</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="14">
         <v>4.46</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="14">
         <v>5.9</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="14">
         <v>4.3099999999999996</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="14">
         <v>5.91</v>
       </c>
-      <c r="I4">
-        <v>6.5</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="14">
+        <v>6.5033527436801686</v>
+      </c>
+      <c r="J4" s="14">
         <v>5.84</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="14">
         <v>5.91</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="14">
         <v>6.41</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="14">
         <v>10.67</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="14">
         <v>6.29</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="14">
         <v>2.95</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="14">
         <v>3.75</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="14">
         <v>4.3099999999999996</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="14">
         <v>0.86</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="15">
         <v>10.06</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C5" s="23" t="s">
+    <row r="5" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C5" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="17">
         <v>0.39</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="17">
         <v>10.79</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="17">
         <v>11.11</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="17">
         <v>3.18</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="17">
         <v>10.39</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="17">
         <v>7.18</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="17">
         <v>9.86</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="17">
         <v>8.48</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="17">
         <v>8.0299999999999994</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="17">
         <v>12.03</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="17">
         <v>8.6199999999999992</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="17">
         <v>-1.87</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="17">
         <v>4.04</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="17">
         <v>6.37</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="17">
         <v>1.93</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="18">
         <v>7.94</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C6" s="23" t="s">
+    <row r="6" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C6" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="14">
         <v>0.22</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="14">
         <v>12.39</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="14">
         <v>10.68</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="14">
         <v>0.88</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="14">
         <v>10.7</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="14">
         <v>5.43</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="14">
         <v>10.039999999999999</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="14">
         <v>7.64</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="14">
         <v>7.1</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="14">
         <v>12.92</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="14">
         <v>9.36</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="14">
         <v>-4.8499999999999996</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="14">
         <v>4.53</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="14">
         <v>7.84</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="14">
         <v>2.57</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="15">
         <v>8.24</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C7" s="23" t="s">
+    <row r="7" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C7" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="17">
         <v>2.77</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="17">
         <v>34.44</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="17">
         <v>11.62</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="17">
         <v>-23.25</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="17">
         <v>17.93</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="17">
         <v>-5.21</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="17">
         <v>34.909999999999997</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="17">
         <v>-6.24</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="17">
         <v>3.69</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="17">
         <v>13.74</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="17">
         <v>31.19</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="17">
         <v>-24.55</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="17">
         <v>3.47</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="17">
         <v>12.92</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="17">
         <v>9.92</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="18">
         <v>-13.58</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C8" s="23" t="s">
+    <row r="8" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C8" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="14">
         <v>0.86</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="14">
         <v>9.07</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="14">
         <v>12.52</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="14">
         <v>-3.15</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="14">
         <v>9.08</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="14">
         <v>1.64</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="14">
         <v>17.79</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="14">
         <v>19.170000000000002</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="14">
         <v>-6.73</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="14">
         <v>8.61</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="14">
         <v>17.23</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="14">
         <v>-4.1100000000000003</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="14">
         <v>3.36</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="14">
         <v>-1.46</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="14">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="15">
         <v>10.62</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C9" s="23" t="s">
+    <row r="9" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C9" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="17">
         <v>-6.4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="17">
         <v>25.8</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="17">
         <v>20.260000000000002</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="17">
         <v>20.85</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="17">
         <v>-23.2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="17">
         <v>15.02</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="17">
         <v>25.81</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="17">
         <v>13.98</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="17">
         <v>4.93</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="17">
         <v>40.909999999999997</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="17">
         <v>-26.55</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="17">
         <v>-4.43</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="17">
         <v>39.68</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="17">
         <v>-15.15</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="17">
         <v>8.18</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="18">
         <v>4.75</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C10" s="23" t="s">
+    <row r="10" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C10" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="14">
         <v>-0.5</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="14">
         <v>-13.61</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="14">
         <v>8.5299999999999994</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="14">
         <v>31.43</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="14">
         <v>15.89</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="14">
         <v>3.74</v>
       </c>
-      <c r="J10" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K10" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L10" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M10" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="N10" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="O10" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P10" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q10" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R10" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S10" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C11" s="23" t="s">
+      <c r="J10" s="14">
+        <v>-0.65</v>
+      </c>
+      <c r="K10" s="14">
+        <v>-2.66</v>
+      </c>
+      <c r="L10" s="14">
+        <v>4.03</v>
+      </c>
+      <c r="M10" s="14">
+        <v>20.48</v>
+      </c>
+      <c r="N10" s="14">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="O10" s="14">
+        <v>-12.79</v>
+      </c>
+      <c r="P10" s="14">
+        <v>-3.39</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>2.81</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0.68</v>
+      </c>
+      <c r="S10" s="15">
+        <v>18.420000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C11" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="17">
         <v>1.84</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="17">
         <v>17.03</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="17">
         <v>3.08</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="17">
         <v>17.87</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="17">
         <v>-1.88</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="17">
         <v>11.66</v>
       </c>
-      <c r="J11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="N11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="O11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S11" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C12" s="23" t="s">
+      <c r="J11" s="17">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="K11" s="17">
+        <v>12.32</v>
+      </c>
+      <c r="L11" s="17">
+        <v>7.23</v>
+      </c>
+      <c r="M11" s="17">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="N11" s="17">
+        <v>-4.9400000000000004</v>
+      </c>
+      <c r="O11" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="P11" s="17">
+        <v>10.79</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>2.88</v>
+      </c>
+      <c r="R11" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="S11" s="18">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C12" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="14">
         <v>0.43</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="14">
         <v>5.8</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="14">
         <v>6.65</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="14">
         <v>9.5500000000000007</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="14">
         <v>5.86</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="14">
         <v>2.97</v>
       </c>
-      <c r="J12" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K12" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L12" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M12" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="N12" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="O12" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P12" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q12" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R12" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S12" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C13" s="23" t="s">
+      <c r="J12" s="14">
+        <v>11.74</v>
+      </c>
+      <c r="K12" s="14">
+        <v>18.96</v>
+      </c>
+      <c r="L12" s="14">
+        <v>6.41</v>
+      </c>
+      <c r="M12" s="14">
+        <v>15.23</v>
+      </c>
+      <c r="N12" s="14">
+        <v>22.67</v>
+      </c>
+      <c r="O12" s="14">
+        <v>-16.52</v>
+      </c>
+      <c r="P12" s="14">
+        <v>14.1</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>7.25</v>
+      </c>
+      <c r="R12" s="14">
+        <v>2.59</v>
+      </c>
+      <c r="S12" s="15">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C13" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="17">
         <v>-0.43</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="17">
         <v>22.15</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="17">
         <v>24.02</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="17">
         <v>-5.33</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="17">
         <v>29.64</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="17">
         <v>3.6</v>
       </c>
-      <c r="J13" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K13" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L13" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M13" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="N13" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="O13" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P13" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q13" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R13" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S13" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C14" s="23" t="s">
+      <c r="J13" s="17">
+        <v>-0.67</v>
+      </c>
+      <c r="K13" s="17">
+        <v>4.57</v>
+      </c>
+      <c r="L13" s="17">
+        <v>22.21</v>
+      </c>
+      <c r="M13" s="17">
+        <v>12.48</v>
+      </c>
+      <c r="N13" s="17">
+        <v>3.01</v>
+      </c>
+      <c r="O13" s="17">
+        <v>-2.5</v>
+      </c>
+      <c r="P13" s="17">
+        <v>2.25</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>32.4</v>
+      </c>
+      <c r="R13" s="17">
+        <v>4.25</v>
+      </c>
+      <c r="S13" s="18">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C14" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="14">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="14">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="14">
         <v>8.7200000000000006</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="14">
         <v>8.0500000000000007</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="14">
         <v>9.35</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="14">
         <v>10.35</v>
       </c>
-      <c r="J14" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K14" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L14" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M14" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="N14" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="O14" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P14" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q14" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R14" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S14" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C15" s="23" t="s">
+      <c r="J14" s="14">
+        <v>11.78</v>
+      </c>
+      <c r="K14" s="14">
+        <v>7.25</v>
+      </c>
+      <c r="L14" s="14">
+        <v>9.75</v>
+      </c>
+      <c r="M14" s="14">
+        <v>10.75</v>
+      </c>
+      <c r="N14" s="14">
+        <v>8.98</v>
+      </c>
+      <c r="O14" s="14">
+        <v>2.67</v>
+      </c>
+      <c r="P14" s="14">
+        <v>2.94</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>1.74</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="S14" s="15">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C15" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="17">
         <v>-0.19</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="17">
         <v>7.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="17">
         <v>15.08</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="17">
         <v>-1.24</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="17">
         <v>10.130000000000001</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="17">
         <v>5.62</v>
       </c>
-      <c r="J15" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K15" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L15" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M15" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="N15" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="O15" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P15" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q15" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R15" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S15" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C16" s="23" t="s">
+      <c r="J15" s="17">
+        <v>13.47</v>
+      </c>
+      <c r="K15" s="17">
+        <v>5.85</v>
+      </c>
+      <c r="L15" s="17">
+        <v>9.09</v>
+      </c>
+      <c r="M15" s="17">
+        <v>8.99</v>
+      </c>
+      <c r="N15" s="17">
+        <v>5.76</v>
+      </c>
+      <c r="O15" s="17">
+        <v>-0.53</v>
+      </c>
+      <c r="P15" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>5.24</v>
+      </c>
+      <c r="R15" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="S15" s="18">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C16" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="14">
         <v>0.64</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="14">
         <v>15.63</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="14">
         <v>8.23</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="14">
         <v>-1.61</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="14">
         <v>10.1</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="14">
         <v>5.38</v>
       </c>
-      <c r="J16" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K16" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L16" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M16" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="N16" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="O16" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P16" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q16" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R16" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S16" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C17" s="23" t="s">
+      <c r="J16" s="14">
+        <v>12.78</v>
+      </c>
+      <c r="K16" s="14">
+        <v>7.51</v>
+      </c>
+      <c r="L16" s="14">
+        <v>2.69</v>
+      </c>
+      <c r="M16" s="14">
+        <v>10.64</v>
+      </c>
+      <c r="N16" s="14">
+        <v>6.73</v>
+      </c>
+      <c r="O16" s="14">
+        <v>-5.08</v>
+      </c>
+      <c r="P16" s="14">
+        <v>3.08</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>13.81</v>
+      </c>
+      <c r="R16" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="S16" s="15">
+        <v>23.55</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C17" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="17">
         <v>-0.23</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="17">
         <v>19.79</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="17">
         <v>0.68</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="17">
         <v>-0.45</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="17">
         <v>11.42</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="17">
         <v>8.07</v>
       </c>
-      <c r="J17" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K17" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L17" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M17" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="N17" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="O17" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P17" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q17" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R17" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S17" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C18" s="23" t="s">
+      <c r="J17" s="17">
+        <v>5.73</v>
+      </c>
+      <c r="K17" s="17">
+        <v>15.97</v>
+      </c>
+      <c r="L17" s="17">
+        <v>1.07</v>
+      </c>
+      <c r="M17" s="17">
+        <v>7.22</v>
+      </c>
+      <c r="N17" s="17">
+        <v>15.13</v>
+      </c>
+      <c r="O17" s="17">
+        <v>-5.85</v>
+      </c>
+      <c r="P17" s="17">
+        <v>6.22</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>1.88</v>
+      </c>
+      <c r="R17" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="S17" s="18">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C18" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="14">
         <v>0.35</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="14">
         <v>7.19</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="14">
         <v>14.78</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="14">
         <v>-0.69</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="14">
         <v>7.12</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="14">
         <v>5.07</v>
       </c>
-      <c r="J18" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K18" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L18" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M18" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="N18" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="O18" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P18" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q18" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R18" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S18" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C19" s="23" t="s">
+      <c r="J18" s="14">
+        <v>8.76</v>
+      </c>
+      <c r="K18" s="14">
+        <v>13.49</v>
+      </c>
+      <c r="L18" s="14">
+        <v>5.42</v>
+      </c>
+      <c r="M18" s="14">
+        <v>10.64</v>
+      </c>
+      <c r="N18" s="14">
+        <v>6.48</v>
+      </c>
+      <c r="O18" s="14">
+        <v>1.92</v>
+      </c>
+      <c r="P18" s="14">
+        <v>4.37</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>0.82</v>
+      </c>
+      <c r="R18" s="14">
+        <v>-0.05</v>
+      </c>
+      <c r="S18" s="15">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C19" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="17">
         <v>5.37</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="17">
         <v>12.6</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="17">
         <v>6.24</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="17">
         <v>-2.5</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="17">
         <v>4.33</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="17">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J19" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K19" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L19" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M19" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="N19" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="O19" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P19" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q19" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R19" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S19" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C20" s="23" t="s">
+      <c r="J19" s="17">
+        <v>19.11</v>
+      </c>
+      <c r="K19" s="17">
+        <v>-9.92</v>
+      </c>
+      <c r="L19" s="17">
+        <v>-0.48</v>
+      </c>
+      <c r="M19" s="17">
+        <v>14.04</v>
+      </c>
+      <c r="N19" s="17">
+        <v>12.48</v>
+      </c>
+      <c r="O19" s="17">
+        <v>-2.4</v>
+      </c>
+      <c r="P19" s="17">
+        <v>1.45</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>4.87</v>
+      </c>
+      <c r="R19" s="17">
+        <v>11.67</v>
+      </c>
+      <c r="S19" s="18">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C20" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="14">
         <v>0.34</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="14">
         <v>5.5</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="14">
         <v>3.79</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="14">
         <v>6.05</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="14">
         <v>5.82</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="14">
         <v>11.77</v>
       </c>
-      <c r="J20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="N20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="O20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S20" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C21" s="23" t="s">
+      <c r="J20" s="14">
+        <v>10.53</v>
+      </c>
+      <c r="K20" s="14">
+        <v>5.24</v>
+      </c>
+      <c r="L20" s="14">
+        <v>8.6</v>
+      </c>
+      <c r="M20" s="14">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N20" s="14">
+        <v>11.32</v>
+      </c>
+      <c r="O20" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="P20" s="14">
+        <v>-0.32</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>-0.47</v>
+      </c>
+      <c r="R20" s="14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="S20" s="15">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C21" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="17">
         <v>0.63</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="17">
         <v>1.26</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="17">
         <v>6.69</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="17">
         <v>5.27</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="17">
         <v>0.43</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="17">
         <v>-0.35</v>
       </c>
-      <c r="J21" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K21" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L21" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M21" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="N21" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="O21" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P21" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q21" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R21" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S21" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.45">
-      <c r="C22" s="23" t="s">
+      <c r="J21" s="17">
+        <v>12.01</v>
+      </c>
+      <c r="K21" s="17">
+        <v>9.94</v>
+      </c>
+      <c r="L21" s="17">
+        <v>3.11</v>
+      </c>
+      <c r="M21" s="17">
+        <v>7.12</v>
+      </c>
+      <c r="N21" s="17">
+        <v>9.81</v>
+      </c>
+      <c r="O21" s="17">
+        <v>2.98</v>
+      </c>
+      <c r="P21" s="17">
+        <v>3.43</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>2.36</v>
+      </c>
+      <c r="R21" s="17">
+        <v>1.51</v>
+      </c>
+      <c r="S21" s="18">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="C22" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="21">
         <v>-0.48</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="21">
         <v>3.19</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="21">
         <v>7.47</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="21">
         <v>8.68</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="21">
         <v>10.23</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="21">
         <v>-0.5</v>
       </c>
-      <c r="J22" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K22" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L22" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M22" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="N22" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="O22" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P22" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q22" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R22" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S22" t="e">
-        <v>#REF!</v>
+      <c r="J22" s="21">
+        <v>14.61</v>
+      </c>
+      <c r="K22" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="L22" s="21">
+        <v>8.86</v>
+      </c>
+      <c r="M22" s="21">
+        <v>21.2</v>
+      </c>
+      <c r="N22" s="21">
+        <v>10.53</v>
+      </c>
+      <c r="O22" s="21">
+        <v>-4.25</v>
+      </c>
+      <c r="P22" s="21">
+        <v>-0.34</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>8.26</v>
+      </c>
+      <c r="R22" s="21">
+        <v>-0.84</v>
+      </c>
+      <c r="S22" s="22">
+        <v>8.16</v>
       </c>
     </row>
   </sheetData>

--- a/BaseInflaProjR.xlsx
+++ b/BaseInflaProjR.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FGV\5° Periodo\Lab de R\Projeto A2 Lab de R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354D3436-5AB8-4C18-B724-E259F088E847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3A405-92F6-4328-B11B-581C025E3919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="2640" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPCAxINCC" sheetId="1" r:id="rId1"/>
     <sheet name="Infla Subitens" sheetId="3" r:id="rId2"/>
-    <sheet name="Itens Infla Domicilio" sheetId="2" r:id="rId3"/>
+    <sheet name="Massa Salarial" sheetId="4" r:id="rId3"/>
+    <sheet name="Itens Infla Domicilio" sheetId="2" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="200">
   <si>
     <t xml:space="preserve"> CEREAIS, LEGUMINOSAS E OLEAGINOSAS</t>
   </si>
@@ -635,14 +636,28 @@
   </si>
   <si>
     <t>Sal e Condimentos</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Massa Salarial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -814,44 +829,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3373,7 +3389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF8B33B-7FE7-4CC4-B4A6-48AD03D7A6AD}">
   <dimension ref="C3:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4459,6 +4475,153 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408BF2F2-9E21-467E-BF39-85828E5EA7E2}">
+  <dimension ref="B3:S4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B3" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="23">
+        <v>2006</v>
+      </c>
+      <c r="D3" s="23">
+        <f>C3+1</f>
+        <v>2007</v>
+      </c>
+      <c r="E3" s="23">
+        <f t="shared" ref="E3:U3" si="0">D3+1</f>
+        <v>2008</v>
+      </c>
+      <c r="F3" s="23">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="G3" s="23">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H3" s="23">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="I3" s="23">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="J3" s="23">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="K3" s="23">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="L3" s="23">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="M3" s="23">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="N3" s="23">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="O3" s="23">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="P3" s="23">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="Q3" s="23">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="R3" s="23">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="S3" s="23">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B4" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4">
+        <v>99.69</v>
+      </c>
+      <c r="D4">
+        <v>105.13</v>
+      </c>
+      <c r="E4">
+        <v>109.88</v>
+      </c>
+      <c r="F4">
+        <v>107.19</v>
+      </c>
+      <c r="G4">
+        <v>113.08</v>
+      </c>
+      <c r="H4">
+        <v>115.35</v>
+      </c>
+      <c r="I4">
+        <v>116.98</v>
+      </c>
+      <c r="J4">
+        <v>120.81</v>
+      </c>
+      <c r="K4">
+        <v>107.22</v>
+      </c>
+      <c r="L4">
+        <v>104.36</v>
+      </c>
+      <c r="M4">
+        <v>99.06</v>
+      </c>
+      <c r="N4">
+        <v>97.19</v>
+      </c>
+      <c r="O4">
+        <v>95.6</v>
+      </c>
+      <c r="P4">
+        <v>91.3</v>
+      </c>
+      <c r="Q4">
+        <v>86.19</v>
+      </c>
+      <c r="R4">
+        <v>94.5</v>
+      </c>
+      <c r="S4">
+        <v>98.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECCCCF4-903E-4F9B-8133-DF9A057E17A5}">
   <dimension ref="B3:S23"/>
   <sheetViews>
